--- a/table.xlsx
+++ b/table.xlsx
@@ -37,7 +37,7 @@
     <t>开发计划</t>
   </si>
   <si>
-    <t>DH3项目主计划</t>
+    <t>DH1项目主计划</t>
   </si>
   <si>
     <t>https://acndoaymjsa1.feishu.cn/file/JauUbijsxoJ4euxYl2Zc1ohunRb?from=from_copylink</t>
@@ -46,20 +46,20 @@
     <t>url</t>
   </si>
   <si>
-    <t>【飞书】DH3项目主计划
+    <t>【飞书】DH1项目主计划
 12月8日版本</t>
   </si>
   <si>
     <t>整车配置</t>
   </si>
   <si>
-    <t>DH3整车配置清单</t>
+    <t>DH1整车配置清单</t>
   </si>
   <si>
     <t>https://acndoaymjsa1.feishu.cn/file/OIj0bkDXboXH3ExfXg7cbTzOnAh</t>
   </si>
   <si>
-    <t>【飞书】DH3整车配置表
+    <t>【飞书】DH1整车配置表
 12月3日版本</t>
   </si>
   <si>
@@ -72,13 +72,13 @@
     <t>https://acndoaymjsa1.feishu.cn/sheets/Gbh8sTDmdhMD9DtZcC2c7trunRe</t>
   </si>
   <si>
-    <t>【飞书】包含DH1，DH3各业务板块联系人信息</t>
+    <t>【飞书】包含DH1，DH1各业务板块联系人信息</t>
   </si>
   <si>
     <t>设计评审</t>
   </si>
   <si>
-    <t>DH3电子电气拓扑图</t>
+    <t>DH1电子电气拓扑图</t>
   </si>
   <si>
     <t>w:\yling</t>
@@ -94,25 +94,25 @@
     <t>阶段评审</t>
   </si>
   <si>
-    <t>DH3项目J2阶段评审材料输入信息</t>
-  </si>
-  <si>
-    <t>\\10.4.9.25\Project\DH系列\060-整车开发\DH3\J2评审输入</t>
+    <t>DH1项目J2阶段评审材料输入信息</t>
+  </si>
+  <si>
+    <t>\\10.4.9.25\Project\DH系列\060-整车开发\DH1\J2评审输入</t>
   </si>
   <si>
     <t>【外网】J2阶段输入物数据库</t>
   </si>
   <si>
-    <t>DH3项目J2阶段评审材料归档路径</t>
-  </si>
-  <si>
-    <t>\\10.4.9.25\Project\DH系列\130-智能软件\DH3\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</t>
+    <t>DH1项目J2阶段评审材料归档路径</t>
+  </si>
+  <si>
+    <t>\\10.4.9.25\Project\DH系列\130-智能软件\DH1\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</t>
   </si>
   <si>
     <t>【外网】请大家把J2材料及会议纪要放入此文件夹</t>
   </si>
   <si>
-    <t>DH3项目智软控制器开发计划</t>
+    <t>DH1项目智软控制器开发计划</t>
   </si>
   <si>
     <t>https://acndoaymjsa1.feishu.cn/file/K8KlbxqKmoZV2HxoG94ccLotnne</t>
@@ -121,7 +121,7 @@
     <t>【飞书】请大家在此更新各自开发计划</t>
   </si>
   <si>
-    <t>DH3项目华为接口联系人清单</t>
+    <t>DH1项目华为接口联系人清单</t>
   </si>
   <si>
     <t>https://acndoaymjsa1.feishu.cn/file/NI95bmHjpoopKBxVGhrc7S9SnUc</t>
@@ -130,7 +130,7 @@
     <t>【飞书】包含华为座舱、智驾、网联相关接口人信息</t>
   </si>
   <si>
-    <t>DH3项目研发总院智软内部责任分工</t>
+    <t>DH1项目研发总院智软内部责任分工</t>
   </si>
   <si>
     <t>https://acndoaymjsa1.feishu.cn/wiki/YyMcwejHNifAkfk0aEXcjdeQnTb?table=tbltH0YNXCFoOxNm&amp;view=vewS54CcOf</t>
@@ -142,22 +142,22 @@
     <t>再发防止</t>
   </si>
   <si>
-    <t>DH3不满再发防止-整车级</t>
+    <t>DH1不满再发防止-整车级</t>
   </si>
   <si>
     <t>https://acndoaymjsa1.feishu.cn/file/BzEsbuCLCowqs2xT1y0cRe1JnSb</t>
   </si>
   <si>
-    <t>【飞书】DH3不满再发防止-整车级</t>
-  </si>
-  <si>
-    <t>DH3 LLR和PRC再发防止 - 总院级</t>
+    <t>【飞书】DH1不满再发防止-整车级</t>
+  </si>
+  <si>
+    <t>DH1 LLR和PRC再发防止 - 总院级</t>
   </si>
   <si>
     <t>https://doc.weixin.qq.com/sheet/e3_AKkAcQbnAKcCNoUhJadOcRr27t3Mb?scode=AGwAPQeYAA0i5kLUWBAbgALQaUAJ8&amp;version=5.0.0.8619&amp;platform=win&amp;tab=mfripw</t>
   </si>
   <si>
-    <t>【企微】DH3 LLR和PRC再发防止 - 总院级</t>
+    <t>【企微】DH1 LLR和PRC再发防止 - 总院级</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1423,7 +1423,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F12" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:F1 A2:B2 D2:E2 A3:B3 D3:E3 A4:E4 A5:B12 D5:F5 E6:F7 D8:F10 D11:E12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,14 +466,14 @@
         <v>DH1整车配置清单</v>
       </c>
       <c r="D3" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/file/OIj0bkDXboXH3ExfXg7cbTzOnAh</v>
+        <v>https://acndoaymjsa1.feishu.cn/file/DcMPbNUlAoIJ1QxhfFscwleJnid</v>
       </c>
       <c r="E3" t="str">
         <v>url</v>
       </c>
       <c r="F3" t="str" xml:space="preserve">
         <v xml:space="preserve">【飞书】DH1整车配置表
-12月3日版本</v>
+1月4日版本</v>
       </c>
     </row>
     <row r="4">
@@ -487,13 +487,13 @@
         <v>DH项目整体联系人清单</v>
       </c>
       <c r="D4" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/sheets/Gbh8sTDmdhMD9DtZcC2c7trunRe</v>
+        <v>https://dongfengyipai.feishu.cn/wiki/S4ZFw6mnfiG56NkuYsccRFUrnNd?table=tblCQ7798eaHKM2n&amp;view=vew5Qwimte</v>
       </c>
       <c r="E4" t="str">
         <v>url</v>
       </c>
       <c r="F4" t="str">
-        <v>【飞书】包含DH1，DH1各业务板块联系人信息</v>
+        <v>【飞书】包含DH1各业务板块联系人信息</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
@@ -507,159 +507,59 @@
         <v>DH1电子电气拓扑图</v>
       </c>
       <c r="D5" t="str">
-        <v>w:\yling</v>
+        <v>预留待更新</v>
       </c>
       <c r="E5" t="str">
         <v>folder</v>
       </c>
       <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">【内网】w:\yling
+        <v xml:space="preserve">【内网】预留待更新
 请确保你的账号已经切换到内网</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="str">
         <v>阶段评审</v>
       </c>
       <c r="C6" t="str">
-        <v>DH1项目J2阶段评审材料输入信息</v>
+        <v>DH1项目J5阶段评审材料归档路径</v>
       </c>
       <c r="D6" t="str">
-        <v>\\10.4.9.25\Project\DH系列\060-整车开发\DH1\J2评审输入</v>
+        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH1\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
       </c>
       <c r="E6" t="str">
         <v>folder</v>
       </c>
       <c r="F6" t="str">
-        <v>【外网】J2阶段输入物数据库</v>
+        <v>【外网】请大家把J5材料及会议纪要放入此文件夹</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="str">
-        <v>阶段评审</v>
+        <v>联系信息</v>
       </c>
       <c r="C7" t="str">
-        <v>DH1项目J2阶段评审材料归档路径</v>
+        <v>DH1项目研发总院智软内部责任分工</v>
       </c>
       <c r="D7" t="str">
-        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH1\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
+        <v>https://acndoaymjsa1.feishu.cn/wiki/YyMcwejHNifAkfk0aEXcjdeQnTb?table=tbltH0YNXCFoOxNm&amp;view=vewS54CcOf</v>
       </c>
       <c r="E7" t="str">
-        <v>folder</v>
+        <v>url</v>
       </c>
       <c r="F7" t="str">
-        <v>【外网】请大家把J2材料及会议纪要放入此文件夹</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="str">
-        <v>开发计划</v>
-      </c>
-      <c r="C8" t="str">
-        <v>DH1项目智软控制器开发计划</v>
-      </c>
-      <c r="D8" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/file/K8KlbxqKmoZV2HxoG94ccLotnne</v>
-      </c>
-      <c r="E8" t="str">
-        <v>url</v>
-      </c>
-      <c r="F8" t="str">
-        <v>【飞书】请大家在此更新各自开发计划</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="str">
-        <v>联系信息</v>
-      </c>
-      <c r="C9" t="str">
-        <v>DH1项目华为接口联系人清单</v>
-      </c>
-      <c r="D9" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/file/NI95bmHjpoopKBxVGhrc7S9SnUc</v>
-      </c>
-      <c r="E9" t="str">
-        <v>url</v>
-      </c>
-      <c r="F9" t="str">
-        <v>【飞书】包含华为座舱、智驾、网联相关接口人信息</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="str">
-        <v>联系信息</v>
-      </c>
-      <c r="C10" t="str">
-        <v>DH1项目研发总院智软内部责任分工</v>
-      </c>
-      <c r="D10" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/wiki/YyMcwejHNifAkfk0aEXcjdeQnTb?table=tbltH0YNXCFoOxNm&amp;view=vewS54CcOf</v>
-      </c>
-      <c r="E10" t="str">
-        <v>url</v>
-      </c>
-      <c r="F10" t="str">
         <v>【飞书】仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="str">
-        <v>再发防止</v>
-      </c>
-      <c r="C11" t="str">
-        <v>DH1不满再发防止-整车级</v>
-      </c>
-      <c r="D11" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/file/BzEsbuCLCowqs2xT1y0cRe1JnSb</v>
-      </c>
-      <c r="E11" t="str">
-        <v>url</v>
-      </c>
-      <c r="F11" t="str">
-        <v>【飞书】DH1不满再发防止-整车级</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="str">
-        <v>再发防止</v>
-      </c>
-      <c r="C12" t="str">
-        <v>DH1 LLR和PRC再发防止 - 总院级</v>
-      </c>
-      <c r="D12" t="str">
-        <v>https://doc.weixin.qq.com/sheet/e3_AKkAcQbnAKcCNoUhJadOcRr27t3Mb?scode=AGwAPQeYAA0i5kLUWBAbgALQaUAJ8&amp;version=5.0.0.8619&amp;platform=win&amp;tab=mfripw</v>
-      </c>
-      <c r="E12" t="str">
-        <v>url</v>
-      </c>
-      <c r="F12" t="str">
-        <v>【企微】DH1 LLR和PRC再发防止 - 总院级</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -548,7 +548,7 @@
         <v>DH1项目研发总院智软内部责任分工</v>
       </c>
       <c r="D7" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/wiki/YyMcwejHNifAkfk0aEXcjdeQnTb?table=tbltH0YNXCFoOxNm&amp;view=vewS54CcOf</v>
+        <v>https://acndoaymjsa1.feishu.cn/wiki/F5JbwGoz1iI0eVk7SNZcMyetnDd?table=tblL7GTSCJjWcVnU</v>
       </c>
       <c r="E7" t="str">
         <v>url</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="F2" t="str" xml:space="preserve">
         <v xml:space="preserve">【飞书】DH1项目主计划
-XX月XX日版本</v>
+1月6日版本</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -528,7 +528,7 @@
         <v>DH1项目J5阶段评审材料归档路径</v>
       </c>
       <c r="D6" t="str">
-        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH1\130100_ 阶段评审材料\130102_ J2阶段评审材料及会议纪要</v>
+        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH1\05-J5评审材料及会议纪要</v>
       </c>
       <c r="E6" t="str">
         <v>folder</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="str">
-        <v>联系信息</v>
+        <v>责任分工</v>
       </c>
       <c r="C7" t="str">
         <v>DH1项目研发总院智软内部责任分工</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,62 +1,485 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="18530" windowHeight="8330"/>
+  </bookViews>
   <sheets>
     <sheet name="DH1项目索引表" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>地址类型</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>开发计划</t>
+  </si>
+  <si>
+    <t>DH1项目主计划</t>
+  </si>
+  <si>
+    <t>https://dongfengyipai.feishu.cn/slides/PpvuslOTblanEOd3FbKcUuHonve</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>【飞书】DH1项目主计划
+1月6日版本</t>
+  </si>
+  <si>
+    <t>整车配置</t>
+  </si>
+  <si>
+    <t>DH1整车配置清单</t>
+  </si>
+  <si>
+    <t>https://acndoaymjsa1.feishu.cn/file/DcMPbNUlAoIJ1QxhfFscwleJnid</t>
+  </si>
+  <si>
+    <t>【飞书】DH1整车配置表
+1月4日版本</t>
+  </si>
+  <si>
+    <t>联系信息</t>
+  </si>
+  <si>
+    <t>DH项目整体联系人清单</t>
+  </si>
+  <si>
+    <t>https://dongfengyipai.feishu.cn/wiki/S4ZFw6mnfiG56NkuYsccRFUrnNd?table=tblCQ7798eaHKM2n&amp;view=vew5Qwimte</t>
+  </si>
+  <si>
+    <t>【飞书】包含DH1各业务板块联系人信息</t>
+  </si>
+  <si>
+    <t>设计评审</t>
+  </si>
+  <si>
+    <t>DH1电子电气拓扑图</t>
+  </si>
+  <si>
+    <t>预留待更新</t>
+  </si>
+  <si>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>【内网】预留待更新
+请确保你的账号已经切换到内网</t>
+  </si>
+  <si>
+    <t>阶段评审</t>
+  </si>
+  <si>
+    <t>DH1项目J5阶段评审材料归档路径</t>
+  </si>
+  <si>
+    <t>\\10.4.9.25\Project\DH系列\130-智能软件\DH1\05-J5评审材料及会议纪要</t>
+  </si>
+  <si>
+    <t>【外网】请大家把J5材料及会议纪要放入此文件夹</t>
+  </si>
+  <si>
+    <t>责任分工</t>
+  </si>
+  <si>
+    <t>DH1项目研发总院智软内部责任分工</t>
+  </si>
+  <si>
+    <t>https://acndoaymjsa1.feishu.cn/wiki/F5JbwGoz1iI0eVk7SNZcMyetnDd?table=tblL7GTSCJjWcVnU</t>
+  </si>
+  <si>
+    <t>【飞书】仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -64,18 +487,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -395,171 +1112,173 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="50.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83333333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="30.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="50.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="25.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>序号</v>
-      </c>
-      <c r="B1" t="str">
-        <v>分类</v>
-      </c>
-      <c r="C1" t="str">
-        <v>标题</v>
-      </c>
-      <c r="D1" t="str">
-        <v>地址</v>
-      </c>
-      <c r="E1" t="str">
-        <v>地址类型</v>
-      </c>
-      <c r="F1" t="str">
-        <v>备注</v>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>开发计划</v>
-      </c>
-      <c r="C2" t="str">
-        <v>DH1项目主计划</v>
-      </c>
-      <c r="D2" t="str">
-        <v>https://dongfengyipai.feishu.cn/slides/PpvuslOTblanEOd3FbKcUuHonve</v>
-      </c>
-      <c r="E2" t="str">
-        <v>url</v>
-      </c>
-      <c r="F2" t="str" xml:space="preserve">
-        <v xml:space="preserve">【飞书】DH1项目主计划
-1月6日版本</v>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>整车配置</v>
-      </c>
-      <c r="C3" t="str">
-        <v>DH1整车配置清单</v>
-      </c>
-      <c r="D3" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/file/DcMPbNUlAoIJ1QxhfFscwleJnid</v>
-      </c>
-      <c r="E3" t="str">
-        <v>url</v>
-      </c>
-      <c r="F3" t="str" xml:space="preserve">
-        <v xml:space="preserve">【飞书】DH1整车配置表
-1月4日版本</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>联系信息</v>
-      </c>
-      <c r="C4" t="str">
-        <v>DH项目整体联系人清单</v>
-      </c>
-      <c r="D4" t="str">
-        <v>https://dongfengyipai.feishu.cn/wiki/S4ZFw6mnfiG56NkuYsccRFUrnNd?table=tblCQ7798eaHKM2n&amp;view=vew5Qwimte</v>
-      </c>
-      <c r="E4" t="str">
-        <v>url</v>
-      </c>
-      <c r="F4" t="str">
-        <v>【飞书】包含DH1各业务板块联系人信息</v>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" xml:space="preserve">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>设计评审</v>
-      </c>
-      <c r="C5" t="str">
-        <v>DH1电子电气拓扑图</v>
-      </c>
-      <c r="D5" t="str">
-        <v>预留待更新</v>
-      </c>
-      <c r="E5" t="str">
-        <v>folder</v>
-      </c>
-      <c r="F5" t="str" xml:space="preserve">
-        <v xml:space="preserve">【内网】预留待更新
-请确保你的账号已经切换到内网</v>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="str">
-        <v>阶段评审</v>
-      </c>
-      <c r="C6" t="str">
-        <v>DH1项目J5阶段评审材料归档路径</v>
-      </c>
-      <c r="D6" t="str">
-        <v>\\10.4.9.25\Project\DH系列\130-智能软件\DH1\05-J5评审材料及会议纪要</v>
-      </c>
-      <c r="E6" t="str">
-        <v>folder</v>
-      </c>
-      <c r="F6" t="str">
-        <v>【外网】请大家把J5材料及会议纪要放入此文件夹</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="str">
-        <v>责任分工</v>
-      </c>
-      <c r="C7" t="str">
-        <v>DH1项目研发总院智软内部责任分工</v>
-      </c>
-      <c r="D7" t="str">
-        <v>https://acndoaymjsa1.feishu.cn/wiki/F5JbwGoz1iI0eVk7SNZcMyetnDd?table=tblL7GTSCJjWcVnU</v>
-      </c>
-      <c r="E7" t="str">
-        <v>url</v>
-      </c>
-      <c r="F7" t="str">
-        <v>【飞书】仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
+      <c r="F7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError sqref="A1:F5 B6:F6 B7:F7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,9 +556,29 @@
         <v>【飞书】仅包含东风研发总院智软内部相关责任人分工，仅智软群成员可访问</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>再发防止</v>
+      </c>
+      <c r="C8" t="str">
+        <v>DH1设计类故障再发防止</v>
+      </c>
+      <c r="D8" t="str">
+        <v>https://dongfengyipai.feishu.cn/sheets/RqFFsAkeRhPgSutRG0tczl1NnPf?sheet=1cmpLH</v>
+      </c>
+      <c r="E8" t="str">
+        <v>url</v>
+      </c>
+      <c r="F8" t="str">
+        <v>【飞书】DH1设计类故障再发防止</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F8"/>
   </ignoredErrors>
 </worksheet>
 </file>